--- a/bots/crawl_ch/output/bread_coop_2022-07-11.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-07-11.xlsx
@@ -585,7 +585,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkorntoast mit Dinkel 2.70 Schweizer Franken</t>
+          <t>Naturaplan Bio Mehrkorntoast mit Dinkel - Online kein Bestand 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8359,7 +8359,7 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8963,7 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9583,7 +9583,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9887,7 +9887,7 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10035,7 +10035,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10557,7 +10557,7 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11693,7 +11693,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11767,7 +11767,7 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12309,7 +12309,7 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13133,7 +13133,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13287,7 +13287,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13439,7 +13439,7 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13669,7 +13669,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13895,7 +13895,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14051,7 +14051,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14279,7 +14279,7 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14657,7 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14735,7 +14735,7 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14887,7 +14887,7 @@
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15195,7 +15195,7 @@
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15343,7 +15343,7 @@
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15647,7 +15647,7 @@
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15721,7 +15721,7 @@
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15795,7 +15795,7 @@
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15873,7 +15873,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16021,7 +16021,7 @@
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16099,7 +16099,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16173,7 +16173,7 @@
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16247,7 +16247,7 @@
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16551,7 +16551,7 @@
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16707,7 +16707,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16859,7 +16859,7 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17085,7 +17085,7 @@
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17159,7 +17159,7 @@
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17233,7 +17233,7 @@
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17307,7 +17307,7 @@
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17381,7 +17381,7 @@
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17455,7 +17455,7 @@
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17529,7 +17529,7 @@
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17607,7 +17607,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17755,7 +17755,7 @@
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17903,7 +17903,7 @@
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18207,7 +18207,7 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18281,7 +18281,7 @@
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18433,7 +18433,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18505,7 +18505,7 @@
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18579,7 +18579,7 @@
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18651,7 +18651,7 @@
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18803,7 +18803,7 @@
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18875,7 +18875,7 @@
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19027,7 +19027,7 @@
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19101,7 +19101,7 @@
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19175,7 @@
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19253,7 +19253,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19327,7 +19327,7 @@
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19401,7 @@
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19479,7 +19479,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19785,7 +19785,7 @@
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19859,7 +19859,7 @@
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -19933,7 +19933,7 @@
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20085,7 +20085,7 @@
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20163,7 +20163,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       </c>
       <c r="P262" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20397,7 +20397,7 @@
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20469,7 +20469,7 @@
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20547,7 +20547,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20621,7 +20621,7 @@
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20699,7 +20699,7 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20851,7 +20851,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -20929,7 +20929,7 @@
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21003,7 +21003,7 @@
       <c r="O271" t="inlineStr"/>
       <c r="P271" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21077,7 +21077,7 @@
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21229,7 +21229,7 @@
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21381,36 +21381,36 @@
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>5646171</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FreeFrom Mini Baguettes 6 Stück</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/freefrom-mini-baguettes-6-stueck/p/5646171</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>390g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -21419,12 +21419,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1.27/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -21434,7 +21434,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -21444,51 +21444,47 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>FreeFrom Mini Baguettes 6 Stück 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O277" t="inlineStr">
-        <is>
-          <t>['frozen', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr"/>
       <c r="P277" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>5646171</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>FreeFrom Mini Baguettes 6 Stück</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/freefrom-mini-baguettes-6-stueck/p/5646171</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>390g</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -21497,12 +21493,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.27/100g</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -21512,7 +21508,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -21522,18 +21518,22 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O278" t="inlineStr"/>
+          <t>FreeFrom Mini Baguettes 6 Stück 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['frozen', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21607,7 +21607,7 @@
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21681,24 +21681,24 @@
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -21706,11 +21706,9 @@
           <t>300g</t>
         </is>
       </c>
-      <c r="E281" t="n">
-        <v>4</v>
-      </c>
+      <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -21719,12 +21717,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -21734,7 +21732,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -21749,30 +21747,30 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -21780,9 +21778,11 @@
           <t>300g</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr"/>
+      <c r="E282" t="n">
+        <v>4</v>
+      </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -21791,12 +21791,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -21806,7 +21806,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -21821,13 +21821,13 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
+          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21905,7 +21905,7 @@
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -21983,7 +21983,7 @@
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22061,7 +22061,7 @@
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22213,7 +22213,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22287,7 +22287,7 @@
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22361,7 +22361,7 @@
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22439,7 +22439,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22517,7 +22517,7 @@
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22589,7 +22589,7 @@
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22663,7 +22663,7 @@
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22739,7 +22739,7 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22813,7 +22813,7 @@
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22887,7 +22887,7 @@
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -22961,7 +22961,7 @@
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23039,7 +23039,7 @@
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23117,7 +23117,7 @@
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23195,7 +23195,7 @@
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23269,7 +23269,7 @@
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23343,7 +23343,7 @@
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23417,7 +23417,7 @@
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23495,7 +23495,7 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23569,7 +23569,7 @@
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23643,7 +23643,7 @@
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23717,7 +23717,7 @@
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23791,7 +23791,7 @@
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23865,7 +23865,7 @@
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -23939,7 +23939,7 @@
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24017,7 +24017,7 @@
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24091,7 +24091,7 @@
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24165,7 +24165,7 @@
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24239,7 +24239,7 @@
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24317,7 +24317,7 @@
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24391,7 +24391,7 @@
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24465,7 +24465,7 @@
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24543,7 +24543,7 @@
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24617,7 +24617,7 @@
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24691,7 +24691,7 @@
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24769,7 +24769,7 @@
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24919,7 +24919,7 @@
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -24993,7 +24993,7 @@
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25067,7 +25067,7 @@
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25141,7 +25141,7 @@
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25215,7 +25215,7 @@
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25289,7 +25289,7 @@
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25439,7 +25439,7 @@
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25513,7 +25513,7 @@
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25663,7 +25663,7 @@
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25737,7 +25737,7 @@
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25815,7 +25815,7 @@
       </c>
       <c r="P335" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25887,7 +25887,7 @@
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -25961,7 +25961,7 @@
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -26033,7 +26033,7 @@
       <c r="O338" t="inlineStr"/>
       <c r="P338" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -26107,7 +26107,7 @@
       <c r="O339" t="inlineStr"/>
       <c r="P339" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -26185,7 +26185,7 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="P341" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -26339,50 +26339,50 @@
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>350g</t>
+          <t>3x 42g</t>
         </is>
       </c>
       <c r="E343" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F343" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>5.24/100g</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -26407,60 +26407,60 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>3x 42g</t>
+          <t>350g</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F344" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>5.24/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -26470,7 +26470,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -26485,17 +26485,17 @@
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.60 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="P344" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -26569,7 +26569,7 @@
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -26641,7 +26641,7 @@
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -26715,50 +26715,48 @@
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>3040856</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Nusstorte</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nusstorte/p/3040856</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>350g</t>
-        </is>
-      </c>
-      <c r="E348" t="n">
-        <v>2</v>
-      </c>
+          <t>105g</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr"/>
       <c r="F348" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.86/100g</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -26768,7 +26766,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -26778,45 +26776,47 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 3.95 Schweizer Franken</t>
+          <t>Nusstorte 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>3040856</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Nusstorte</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nusstorte/p/3040856</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>105g</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr"/>
+          <t>500g</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>2</v>
+      </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -26825,12 +26825,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>1.86/100g</t>
+          <t>0.34/100g</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -26840,7 +26840,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -26850,18 +26850,22 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>Nusstorte 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O349" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -26939,33 +26943,33 @@
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>6523684</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Fine Food Bocconcini al pomodoro</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/fine-food-bocconcini-al-pomodoro/p/6523684</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>130g</t>
         </is>
       </c>
       <c r="E351" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F351" t="n">
         <v>5</v>
@@ -26977,12 +26981,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>0.34/100g</t>
+          <t>4.46/100g</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -26992,7 +26996,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -27002,65 +27006,61 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O351" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fine Food Bocconcini al pomodoro 5.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr"/>
       <c r="P351" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6523684</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Fine Food Bocconcini al pomodoro</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/fine-food-bocconcini-al-pomodoro/p/6523684</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>130g</t>
+          <t>370g</t>
         </is>
       </c>
       <c r="E352" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F352" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>4.46/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -27070,7 +27070,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -27080,61 +27080,59 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>Fine Food Bocconcini al pomodoro 5.80 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6962218</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Old el Paso Wraps Classic</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>370g</t>
-        </is>
-      </c>
-      <c r="E353" t="n">
-        <v>8</v>
-      </c>
+          <t>233g</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
       <c r="F353" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -27144,7 +27142,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -27159,54 +27157,56 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6962218</t>
+          <t>6882167</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic</t>
+          <t>Rob &amp;amp; Lissy Dinkel Burger Buns</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/rob-lissy-dinkel-burger-buns/p/6882167</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>233g</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr"/>
+          <t>332g</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>1</v>
+      </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>1.05/100g</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -27216,7 +27216,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -27226,61 +27226,61 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
+          <t>Rob &amp;amp; Lissy Dinkel Burger Buns 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6882167</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Dinkel Burger Buns</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/rob-lissy-dinkel-burger-buns/p/6882167</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>332g</t>
+          <t>350g</t>
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F355" t="n">
         <v>4</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>1.05/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -27290,7 +27290,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -27300,18 +27300,18 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Dinkel Burger Buns 3.50 Schweizer Franken</t>
+          <t>Brossard Zwieback Honig 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -27385,7 +27385,7 @@
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -27459,7 +27459,7 @@
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -27537,7 +27537,7 @@
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -27685,7 +27685,7 @@
       <c r="O360" t="inlineStr"/>
       <c r="P360" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -27759,7 +27759,7 @@
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -27833,7 +27833,7 @@
       <c r="O362" t="inlineStr"/>
       <c r="P362" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -27909,7 +27909,7 @@
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -27983,7 +27983,7 @@
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28055,7 +28055,7 @@
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28129,7 +28129,7 @@
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28203,7 +28203,7 @@
       <c r="O367" t="inlineStr"/>
       <c r="P367" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28275,7 +28275,7 @@
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28349,7 +28349,7 @@
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28423,7 +28423,7 @@
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28497,7 +28497,7 @@
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28571,7 +28571,7 @@
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28647,7 +28647,7 @@
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28721,7 +28721,7 @@
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28793,7 +28793,7 @@
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28869,7 +28869,7 @@
       </c>
       <c r="P376" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -28941,7 +28941,7 @@
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29017,50 +29017,50 @@
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>450g</t>
+          <t>320g</t>
         </is>
       </c>
       <c r="E379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F379" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -29070,7 +29070,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -29080,61 +29080,61 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>320g</t>
+          <t>450g</t>
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F380" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -29144,7 +29144,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -29154,18 +29154,18 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29239,7 +29239,7 @@
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29317,7 +29317,7 @@
       </c>
       <c r="P382" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29467,7 +29467,7 @@
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29541,7 +29541,7 @@
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29615,7 +29615,7 @@
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29693,7 +29693,7 @@
       </c>
       <c r="P387" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29767,7 +29767,7 @@
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29843,7 +29843,7 @@
       </c>
       <c r="P389" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29917,7 +29917,7 @@
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -29995,7 +29995,7 @@
       </c>
       <c r="P391" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -30067,7 +30067,7 @@
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -30141,7 +30141,7 @@
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -30217,7 +30217,7 @@
       </c>
       <c r="P394" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -30293,7 +30293,7 @@
       </c>
       <c r="P395" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>
@@ -30365,7 +30365,7 @@
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="inlineStr">
         <is>
-          <t>2022-07-11 16:01:06</t>
+          <t>2022-07-11 18:30:42</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2022-07-11.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-07-11.xlsx
@@ -585,7 +585,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Ölz Super Soft Sandwich 4.10 Schweizer Franken</t>
+          <t>Ölz Super Soft Sandwich - Online kein Bestand 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 1.95 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm - Online kein Bestand 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8359,7 +8359,7 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8963,7 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9583,7 +9583,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9887,7 +9887,7 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10035,7 +10035,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10557,7 +10557,7 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11693,7 +11693,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11767,7 +11767,7 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12309,7 +12309,7 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13133,7 +13133,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13287,7 +13287,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13439,7 +13439,7 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13669,7 +13669,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13895,7 +13895,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14051,7 +14051,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14279,7 +14279,7 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14657,7 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14735,7 +14735,7 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14887,7 +14887,7 @@
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15195,7 +15195,7 @@
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15343,7 +15343,7 @@
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15647,7 +15647,7 @@
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15721,7 +15721,7 @@
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15795,7 +15795,7 @@
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15873,7 +15873,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16021,7 +16021,7 @@
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16099,7 +16099,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16173,7 +16173,7 @@
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16247,7 +16247,7 @@
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16551,7 +16551,7 @@
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16707,7 +16707,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16859,7 +16859,7 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17085,7 +17085,7 @@
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17159,7 +17159,7 @@
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17233,7 +17233,7 @@
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17307,7 +17307,7 @@
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17381,7 +17381,7 @@
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17455,7 +17455,7 @@
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17529,7 +17529,7 @@
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17607,7 +17607,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17755,7 +17755,7 @@
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17903,7 +17903,7 @@
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18207,7 +18207,7 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18281,7 +18281,7 @@
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18433,7 +18433,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18505,7 +18505,7 @@
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18579,7 +18579,7 @@
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18651,50 +18651,50 @@
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>5671230</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>184g</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F241" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>2.07/100g</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -18714,65 +18714,61 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm 2.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida extra fin Mais Taco 2+1 Aktion 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>5671230</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Betty Bossi Pizzateig Ø28cm</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>184g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F242" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2.07/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -18782,7 +18778,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -18792,18 +18788,22 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 2+1 Aktion 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O242" t="inlineStr"/>
+          <t>Betty Bossi Pizzateig Ø28cm 2.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18875,7 +18875,7 @@
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19027,7 +19027,7 @@
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19101,7 +19101,7 @@
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19175,7 @@
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19253,7 +19253,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19327,7 +19327,7 @@
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19401,7 @@
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19479,7 +19479,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19785,7 +19785,7 @@
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19859,7 +19859,7 @@
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19933,7 +19933,7 @@
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20085,7 +20085,7 @@
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20163,7 +20163,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       </c>
       <c r="P262" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20397,7 +20397,7 @@
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20469,7 +20469,7 @@
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20547,7 +20547,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20621,7 +20621,7 @@
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20699,7 +20699,7 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20851,7 +20851,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20929,7 +20929,7 @@
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21003,7 +21003,7 @@
       <c r="O271" t="inlineStr"/>
       <c r="P271" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21077,7 +21077,7 @@
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21229,7 +21229,7 @@
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21381,7 +21381,7 @@
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21533,7 +21533,7 @@
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21607,7 +21607,7 @@
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21681,7 +21681,7 @@
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21753,7 +21753,7 @@
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21827,7 +21827,7 @@
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21905,7 +21905,7 @@
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21983,7 +21983,7 @@
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22061,7 +22061,7 @@
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22213,7 +22213,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22287,7 +22287,7 @@
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22361,7 +22361,7 @@
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22439,7 +22439,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22517,7 +22517,7 @@
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22589,7 +22589,7 @@
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22663,7 +22663,7 @@
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22739,7 +22739,7 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22813,7 +22813,7 @@
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22887,7 +22887,7 @@
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22961,7 +22961,7 @@
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23039,7 +23039,7 @@
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23117,7 +23117,7 @@
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23195,7 +23195,7 @@
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23269,7 +23269,7 @@
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23343,7 +23343,7 @@
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23417,7 +23417,7 @@
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23495,7 +23495,7 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23569,7 +23569,7 @@
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23643,7 +23643,7 @@
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23717,7 +23717,7 @@
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23791,7 +23791,7 @@
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23865,7 +23865,7 @@
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23939,7 +23939,7 @@
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24017,7 +24017,7 @@
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24091,7 +24091,7 @@
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24165,50 +24165,50 @@
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6738872</t>
+          <t>6601574</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Wasa Tasty Bites Poppy Seeds</t>
+          <t>Roland Knäckebrot Kastanien</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-tasty-bites-poppy-seeds/p/6738872</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-kastanien/p/6601574</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F314" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -24218,7 +24218,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -24233,56 +24233,60 @@
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>Wasa Tasty Bites Poppy Seeds 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O314" t="inlineStr"/>
+          <t>Roland Knäckebrot Kastanien 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="P314" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>6601574</t>
+          <t>6738872</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Kastanien</t>
+          <t>Wasa Tasty Bites Poppy Seeds</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-kastanien/p/6601574</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-tasty-bites-poppy-seeds/p/6738872</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F315" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -24292,7 +24296,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -24307,17 +24311,13 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Kastanien 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O315" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Wasa Tasty Bites Poppy Seeds 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr"/>
       <c r="P315" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24391,7 +24391,7 @@
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24465,7 +24465,7 @@
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24543,7 +24543,7 @@
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24617,7 +24617,7 @@
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24691,7 +24691,7 @@
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24769,7 +24769,7 @@
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24919,7 +24919,7 @@
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24993,24 +24993,24 @@
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -25019,10 +25019,10 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F325" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -25031,12 +25031,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>1.54/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -25056,35 +25056,35 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.50 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -25093,10 +25093,10 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F326" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -25105,12 +25105,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>1.54/100g</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -25130,18 +25130,18 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.30 Schweizer Franken</t>
+          <t>Country Cracker Honig 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25215,7 +25215,7 @@
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25289,7 +25289,7 @@
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25439,50 +25439,50 @@
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6338761</t>
+          <t>6151981</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian</t>
+          <t>Schnitzer Bio Frischback-Baguettini Lauge glutenfrei</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian/p/6338761</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-baguettini-lauge-glutenfrei/p/6151981</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>228g</t>
+          <t>250g</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F331" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>1.54/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -25502,61 +25502,59 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian 3.50 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Baguettini Lauge glutenfrei 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6151981</t>
+          <t>6823790</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Baguettini Lauge glutenfrei</t>
+          <t>Prix Garantie Blätterteig Block</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-baguettini-lauge-glutenfrei/p/6151981</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/prix-garantie-blaetterteig-block/p/6823790</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>250g</t>
-        </is>
-      </c>
-      <c r="E332" t="n">
-        <v>8</v>
-      </c>
+          <t>500g</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
       <c r="F332" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.30/100g</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -25566,7 +25564,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -25576,45 +25574,51 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Baguettini Lauge glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr"/>
+          <t>Prix Garantie Blätterteig Block 1.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6823790</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Prix Garantie Blätterteig Block</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/prix-garantie-blaetterteig-block/p/6823790</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>500g</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr"/>
+          <t>228g</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>2</v>
+      </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -25623,12 +25627,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>0.30/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -25638,7 +25642,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -25648,39 +25652,35 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>Prix Garantie Blätterteig Block 1.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>6338761</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Country Cracker Thymian</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian/p/6338761</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -25689,7 +25689,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F334" t="n">
         <v>4.5</v>
@@ -25701,12 +25701,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.54/100g</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -25716,7 +25716,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -25726,18 +25726,18 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
+          <t>Country Cracker Thymian 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25815,7 +25815,7 @@
       </c>
       <c r="P335" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25887,7 +25887,7 @@
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25961,7 +25961,7 @@
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26033,7 +26033,7 @@
       <c r="O338" t="inlineStr"/>
       <c r="P338" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26107,7 +26107,7 @@
       <c r="O339" t="inlineStr"/>
       <c r="P339" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26185,7 +26185,7 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="P341" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26339,7 +26339,7 @@
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26417,7 +26417,7 @@
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26495,7 +26495,7 @@
       </c>
       <c r="P344" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26569,7 +26569,7 @@
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26641,7 +26641,7 @@
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26715,7 +26715,7 @@
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26787,7 +26787,7 @@
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27017,7 +27017,7 @@
       <c r="O351" t="inlineStr"/>
       <c r="P351" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27091,7 +27091,7 @@
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27163,7 +27163,7 @@
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27237,7 +27237,7 @@
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27311,7 +27311,7 @@
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27385,7 +27385,7 @@
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27459,7 +27459,7 @@
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27537,7 +27537,7 @@
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27685,7 +27685,7 @@
       <c r="O360" t="inlineStr"/>
       <c r="P360" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27759,7 +27759,7 @@
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27833,7 +27833,7 @@
       <c r="O362" t="inlineStr"/>
       <c r="P362" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27909,7 +27909,7 @@
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -27983,7 +27983,7 @@
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28055,7 +28055,7 @@
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28129,7 +28129,7 @@
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28203,7 +28203,7 @@
       <c r="O367" t="inlineStr"/>
       <c r="P367" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28275,7 +28275,7 @@
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28349,7 +28349,7 @@
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28423,7 +28423,7 @@
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28497,7 +28497,7 @@
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28571,7 +28571,7 @@
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28647,7 +28647,7 @@
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28721,7 +28721,7 @@
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28793,7 +28793,7 @@
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28869,7 +28869,7 @@
       </c>
       <c r="P376" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -28941,7 +28941,7 @@
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29017,7 +29017,7 @@
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29091,7 +29091,7 @@
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29165,7 +29165,7 @@
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29239,7 +29239,7 @@
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29317,7 +29317,7 @@
       </c>
       <c r="P382" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29467,7 +29467,7 @@
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29541,7 +29541,7 @@
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29615,7 +29615,7 @@
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29693,7 +29693,7 @@
       </c>
       <c r="P387" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29767,7 +29767,7 @@
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29843,7 +29843,7 @@
       </c>
       <c r="P389" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29917,7 +29917,7 @@
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -29995,7 +29995,7 @@
       </c>
       <c r="P391" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -30067,7 +30067,7 @@
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -30141,7 +30141,7 @@
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -30217,7 +30217,7 @@
       </c>
       <c r="P394" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -30293,7 +30293,7 @@
       </c>
       <c r="P395" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
@@ -30365,7 +30365,7 @@
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="inlineStr">
         <is>
-          <t>2022-07-11 18:30:42</t>
+          <t>2022-07-11 20:49:39</t>
         </is>
       </c>
     </row>
